--- a/多联机调试记录表-自动调试.xlsx
+++ b/多联机调试记录表-自动调试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyanf1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81780836-7703-464C-8819-4CCFB1DD0A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283DE9C4-DEBB-4C71-B237-443E89A4C4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -415,316 +415,7 @@
     <t>多联机自动调试故障表</t>
   </si>
   <si>
-    <t>1#外机</t>
-  </si>
-  <si>
-    <t>2#外机</t>
-  </si>
-  <si>
-    <t>3#外机</t>
-  </si>
-  <si>
-    <t>1#内机</t>
-  </si>
-  <si>
-    <t>2#内机</t>
-  </si>
-  <si>
-    <t>3#内机</t>
-  </si>
-  <si>
     <t>0#外机</t>
-  </si>
-  <si>
-    <t>0#内机</t>
-  </si>
-  <si>
-    <t>4#内机</t>
-  </si>
-  <si>
-    <t>5#内机</t>
-  </si>
-  <si>
-    <t>6#内机</t>
-  </si>
-  <si>
-    <t>7#内机</t>
-  </si>
-  <si>
-    <t>8#内机</t>
-  </si>
-  <si>
-    <t>9#内机</t>
-  </si>
-  <si>
-    <t>10#内机</t>
-  </si>
-  <si>
-    <t>11#内机</t>
-  </si>
-  <si>
-    <t>12#内机</t>
-  </si>
-  <si>
-    <t>13#内机</t>
-  </si>
-  <si>
-    <t>14#内机</t>
-  </si>
-  <si>
-    <t>15#内机</t>
-  </si>
-  <si>
-    <t>16#内机</t>
-  </si>
-  <si>
-    <t>17#内机</t>
-  </si>
-  <si>
-    <t>18#内机</t>
-  </si>
-  <si>
-    <t>19#内机</t>
-  </si>
-  <si>
-    <t>20#内机</t>
-  </si>
-  <si>
-    <t>21#内机</t>
-  </si>
-  <si>
-    <t>22#内机</t>
-  </si>
-  <si>
-    <t>23#内机</t>
-  </si>
-  <si>
-    <t>24#内机</t>
-  </si>
-  <si>
-    <t>25#内机</t>
-  </si>
-  <si>
-    <t>26#内机</t>
-  </si>
-  <si>
-    <t>27#内机</t>
-  </si>
-  <si>
-    <t>28#内机</t>
-  </si>
-  <si>
-    <t>29#内机</t>
-  </si>
-  <si>
-    <t>30#内机</t>
-  </si>
-  <si>
-    <t>31#内机</t>
-  </si>
-  <si>
-    <t>32#内机</t>
-  </si>
-  <si>
-    <t>33#内机</t>
-  </si>
-  <si>
-    <t>34#内机</t>
-  </si>
-  <si>
-    <t>35#内机</t>
-  </si>
-  <si>
-    <t>36#内机</t>
-  </si>
-  <si>
-    <t>37#内机</t>
-  </si>
-  <si>
-    <t>38#内机</t>
-  </si>
-  <si>
-    <t>39#内机</t>
-  </si>
-  <si>
-    <t>40#内机</t>
-  </si>
-  <si>
-    <t>41#内机</t>
-  </si>
-  <si>
-    <t>42#内机</t>
-  </si>
-  <si>
-    <t>43#内机</t>
-  </si>
-  <si>
-    <t>44#内机</t>
-  </si>
-  <si>
-    <t>45#内机</t>
-  </si>
-  <si>
-    <t>46#内机</t>
-  </si>
-  <si>
-    <t>47#内机</t>
-  </si>
-  <si>
-    <t>48#内机</t>
-  </si>
-  <si>
-    <t>49#内机</t>
-  </si>
-  <si>
-    <t>50#内机</t>
-  </si>
-  <si>
-    <t>51#内机</t>
-  </si>
-  <si>
-    <t>52#内机</t>
-  </si>
-  <si>
-    <t>53#内机</t>
-  </si>
-  <si>
-    <t>54#内机</t>
-  </si>
-  <si>
-    <t>55#内机</t>
-  </si>
-  <si>
-    <t>56#内机</t>
-  </si>
-  <si>
-    <t>57#内机</t>
-  </si>
-  <si>
-    <t>58#内机</t>
-  </si>
-  <si>
-    <t>59#内机</t>
-  </si>
-  <si>
-    <t>60#内机</t>
-  </si>
-  <si>
-    <t>61#内机</t>
-  </si>
-  <si>
-    <t>62#内机</t>
-  </si>
-  <si>
-    <t>63#内机</t>
-  </si>
-  <si>
-    <t>64#内机</t>
-  </si>
-  <si>
-    <t>65#内机</t>
-  </si>
-  <si>
-    <t>66#内机</t>
-  </si>
-  <si>
-    <t>67#内机</t>
-  </si>
-  <si>
-    <t>68#内机</t>
-  </si>
-  <si>
-    <t>69#内机</t>
-  </si>
-  <si>
-    <t>70#内机</t>
-  </si>
-  <si>
-    <t>71#内机</t>
-  </si>
-  <si>
-    <t>72#内机</t>
-  </si>
-  <si>
-    <t>73#内机</t>
-  </si>
-  <si>
-    <t>74#内机</t>
-  </si>
-  <si>
-    <t>75#内机</t>
-  </si>
-  <si>
-    <t>76#内机</t>
-  </si>
-  <si>
-    <t>77#内机</t>
-  </si>
-  <si>
-    <t>78#内机</t>
-  </si>
-  <si>
-    <t>79#内机</t>
-  </si>
-  <si>
-    <t>80#内机</t>
-  </si>
-  <si>
-    <t>81#内机</t>
-  </si>
-  <si>
-    <t>82#内机</t>
-  </si>
-  <si>
-    <t>83#内机</t>
-  </si>
-  <si>
-    <t>84#内机</t>
-  </si>
-  <si>
-    <t>85#内机</t>
-  </si>
-  <si>
-    <t>86#内机</t>
-  </si>
-  <si>
-    <t>87#内机</t>
-  </si>
-  <si>
-    <t>88#内机</t>
-  </si>
-  <si>
-    <t>89#内机</t>
-  </si>
-  <si>
-    <t>90#内机</t>
-  </si>
-  <si>
-    <t>91#内机</t>
-  </si>
-  <si>
-    <t>92#内机</t>
-  </si>
-  <si>
-    <t>93#内机</t>
-  </si>
-  <si>
-    <t>94#内机</t>
-  </si>
-  <si>
-    <t>95#内机</t>
-  </si>
-  <si>
-    <t>96#内机</t>
-  </si>
-  <si>
-    <t>97#内机</t>
-  </si>
-  <si>
-    <t>98#内机</t>
-  </si>
-  <si>
-    <t>99#内机</t>
   </si>
   <si>
     <t>故障代码</t>
@@ -801,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -887,20 +578,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,25 +605,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,9 +636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1775,41 +1442,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="28.35" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1824,7 +1491,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
@@ -1834,7 +1501,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1907,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1982,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2799,775 +2466,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" ht="23.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="23.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3584,71 +2517,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3661,22 +2594,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAD654C-0A97-46C7-BAED-604DC3C21F13}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="12" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="12"/>
-    <col min="5" max="5" width="12.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="12"/>
-    <col min="9" max="10" width="9.140625" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="17.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="12.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="10" width="9.140625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3687,30 +2620,27 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="F3" s="11"/>
+      <c r="G2" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
